--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2308723.52644695</v>
+        <v>-2311628.398594103</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>280.3322788958715</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>262.8951264259744</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>77.15919157187217</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>66.84061833648026</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.37087030010025</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>362.7763818607589</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.6736795877834</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>113.6279829050371</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>128.6652719985047</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>96.41170774084657</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>274.1074603556646</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.35124001368203</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>115.819308287704</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>151.8518831495011</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740347</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652581</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.9054987607761</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.11042906179</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1199.64467080071</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.505338824898</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.8815591656899</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>131.8815591656899</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>131.8815591656899</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>131.8815591656899</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>131.8815591656899</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>2629.633314920768</v>
       </c>
       <c r="W4" t="n">
-        <v>352.67413830922</v>
+        <v>2340.216144883807</v>
       </c>
       <c r="X4" t="n">
-        <v>352.67413830922</v>
+        <v>2112.226593985789</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.8815591656899</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4705,22 +4705,22 @@
         <v>500.820796875036</v>
       </c>
       <c r="D7" t="n">
-        <v>500.820796875036</v>
+        <v>350.7041574627002</v>
       </c>
       <c r="E7" t="n">
-        <v>352.9077032926429</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>352.9077032926429</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>183.9079030309753</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1451.918353991151</v>
+        <v>1449.805567846278</v>
       </c>
       <c r="C8" t="n">
-        <v>1451.918353991151</v>
+        <v>1080.843050905866</v>
       </c>
       <c r="D8" t="n">
-        <v>1451.918353991151</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>1066.130101392907</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1491.354506998273</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.657526031085</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.657526031085</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.657526031085</v>
+        <v>1836.4054079104</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.518194055273</v>
+        <v>1836.4054079104</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>377.4396513563111</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1017.985000823416</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.529400850426</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2234.965409603149</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>527.250447260842</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>358.3142643329351</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>620.8081818444795</v>
+        <v>936.888462989099</v>
       </c>
       <c r="U10" t="n">
-        <v>331.6560054221592</v>
+        <v>936.888462989099</v>
       </c>
       <c r="V10" t="n">
-        <v>331.6560054221592</v>
+        <v>936.888462989099</v>
       </c>
       <c r="W10" t="n">
-        <v>331.6560054221592</v>
+        <v>936.888462989099</v>
       </c>
       <c r="X10" t="n">
-        <v>331.6560054221592</v>
+        <v>708.8989120910817</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.8634262786291</v>
+        <v>708.8989120910817</v>
       </c>
     </row>
     <row r="11">
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.96527192868</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>1098.667160263528</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.730977335621</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232852</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408921</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578617</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000598</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1280.315625093767</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1280.315625093767</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6184,10 +6184,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6373,7 +6373,7 @@
         <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6415,7 +6415,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,16 +6634,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547835</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7075,31 +7075,31 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954144</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213312</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247061</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796382</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119781</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176793</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719451</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660664</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063897</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229214</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519666</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275435</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081896</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>275.9570617099728</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>258.1828939084839</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>272.6222837666357</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-8.799369345713404e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-4.251895836848763e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.404011987390191e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>84.94061287513608</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.5661213872634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>86.34584229143866</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90.15061068717874</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.2137830519945</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833701</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>134.6711151870899</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-3.785860641657541e-13</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272277</v>
+        <v>31766.15265272276</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>40357.32998450031</v>
@@ -26326,31 +26326,31 @@
         <v>40357.32998450032</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="K2" t="n">
         <v>41052.08849321418</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.0884932142</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103920.2865912124</v>
+        <v>103920.2865912123</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682775</v>
-      </c>
       <c r="I4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977618</v>
       </c>
       <c r="J4" t="n">
+        <v>13668.39582977619</v>
+      </c>
+      <c r="K4" t="n">
         <v>13668.39582977621</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13668.39582977619</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="N4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744981.0912164435</v>
+        <v>-745445.388008468</v>
       </c>
       <c r="C6" t="n">
         <v>-251729.4050332286</v>
       </c>
       <c r="D6" t="n">
-        <v>-407533.2111270236</v>
+        <v>-407533.2111270237</v>
       </c>
       <c r="E6" t="n">
-        <v>-837495.4277868959</v>
+        <v>-837530.1657123315</v>
       </c>
       <c r="F6" t="n">
-        <v>-66442.73640608953</v>
+        <v>-66477.47433152523</v>
       </c>
       <c r="G6" t="n">
-        <v>-66442.73640608958</v>
+        <v>-66477.47433152526</v>
       </c>
       <c r="H6" t="n">
-        <v>-66442.73640608958</v>
+        <v>-66477.47433152524</v>
       </c>
       <c r="I6" t="n">
-        <v>-95208.14118410923</v>
+        <v>-95208.14118410916</v>
       </c>
       <c r="J6" t="n">
-        <v>-252203.6423830704</v>
+        <v>-252203.6423830703</v>
       </c>
       <c r="K6" t="n">
-        <v>-75780.42319047739</v>
+        <v>-75780.42319047742</v>
       </c>
       <c r="L6" t="n">
         <v>-75780.42319047742</v>
       </c>
       <c r="M6" t="n">
-        <v>-199988.9338985359</v>
+        <v>-199988.933898536</v>
       </c>
       <c r="N6" t="n">
-        <v>-95208.1411841092</v>
+        <v>-95208.14118410919</v>
       </c>
       <c r="O6" t="n">
         <v>-75780.42319047741</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.3642486849984</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>185.2970249873478</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>2.496509910248619</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.5642590682702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>32.80597974153204</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>27.50561684329045</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>258.2713338798364</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>132.7685853860469</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.4807401682553</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>107.5535964330547</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305619</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>407.2177391203972</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849409</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>464.5423271901826</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>458.8462693152159</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>382.4097863194628</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983789</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845516</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016076</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
